--- a/data/hotels_by_city/Houston/Houston_shard_533.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_533.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d11904353-Reviews-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Red-Roof-Inn-Houston-East.h25087.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,126 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r479022334-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>11904353</t>
+  </si>
+  <si>
+    <t>479022334</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>business  stay  with this motel</t>
+  </si>
+  <si>
+    <t>i had great experience with staying in this perticular red roof inn. good staff with helpful and kind natured . clean and neat room with good location with restaurant next to it.  breakfast was good . i liked to stay with them. overall very convenient stay with this red roof inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn Houston East, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>i had great experience with staying in this perticular red roof inn. good staff with helpful and kind natured . clean and neat room with good location with restaurant next to it.  breakfast was good . i liked to stay with them. overall very convenient stay with this red roof inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r470591380-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470591380</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Great Place for the Price!</t>
+  </si>
+  <si>
+    <t>Great place for a great price. Friendly staff and great rooms for the price. Everything's around the corner from food places to movie theater. From checking in to checking out my experience was great. Definitely staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place for a great price. Friendly staff and great rooms for the price. Everything's around the corner from food places to movie theater. From checking in to checking out my experience was great. Definitely staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r470177325-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470177325</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>If your choice is sleeping in the car or staying here, sleep in the car.</t>
+  </si>
+  <si>
+    <t>Probably was a nice place before it filled with construction workers. Seriously run down, stained carpets, curtains falling off, holes in the bedding, and seriously funky odor in the room.  At least the bathroom and towels are clean. Pleasant lobby. And they do indeed allow pets.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Probably was a nice place before it filled with construction workers. Seriously run down, stained carpets, curtains falling off, holes in the bedding, and seriously funky odor in the room.  At least the bathroom and towels are clean. Pleasant lobby. And they do indeed allow pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r461820521-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461820521</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>I am a member of the Red Roof Inn rewards program and frequently stay at their hotels. They are never particularly nice but this location has got to be the worst one I've ever stayed at. A majority of the exterior lighting is either missing or doesn't work, the blankets on my beds had burn holes in them, the closet door had a hole in it, there were plumbing leaks in the bathroom, and there was some kind of sewer line leak in the rear parking lot area where there is standing water that had an unpleasant odor.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am a member of the Red Roof Inn rewards program and frequently stay at their hotels. They are never particularly nice but this location has got to be the worst one I've ever stayed at. A majority of the exterior lighting is either missing or doesn't work, the blankets on my beds had burn holes in them, the closet door had a hole in it, there were plumbing leaks in the bathroom, and there was some kind of sewer line leak in the rear parking lot area where there is standing water that had an unpleasant odor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r460882525-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460882525</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>This place is disgusting.  There is mold in the rooms.  The buildings are very old and have obvious poorly done patch jobs.  I have stayed in many Red Roof Inns over the years.  The company should be ashamed of this place.  It should be torn down.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is disgusting.  There is mold in the rooms.  The buildings are very old and have obvious poorly done patch jobs.  I have stayed in many Red Roof Inns over the years.  The company should be ashamed of this place.  It should be torn down.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +661,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +693,402 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_533.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r586147529-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>11904353</t>
+  </si>
+  <si>
+    <t>586147529</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Stay before cruise</t>
+  </si>
+  <si>
+    <t>The hotel is close to Hobby Airport, a short drive to stores, and food places. The man who checked me in was friendly small conversation and let us check in about half an hour early. Room was roomy but not as clean as I expected. Remodeling going on. Beds were comfortable and clean which is important. We enjoyed our night until the next morning when I had to kill 3 big cockroaches that was a bit disgusting. Up until then I would of given a better rating. The woman at the front desk that the room had big roaches didn't seem to concerned. The location and the price was perfect the room with a bit better cleaning would be nicer but they have to get rid of the roaches those you can bring home so we were a bit concerned as we had our luggage in the room. The pool needed some attention as the water was not clear. If they could get rid of the bugs we would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn Houston East, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is close to Hobby Airport, a short drive to stores, and food places. The man who checked me in was friendly small conversation and let us check in about half an hour early. Room was roomy but not as clean as I expected. Remodeling going on. Beds were comfortable and clean which is important. We enjoyed our night until the next morning when I had to kill 3 big cockroaches that was a bit disgusting. Up until then I would of given a better rating. The woman at the front desk that the room had big roaches didn't seem to concerned. The location and the price was perfect the room with a bit better cleaning would be nicer but they have to get rid of the roaches those you can bring home so we were a bit concerned as we had our luggage in the room. The pool needed some attention as the water was not clear. If they could get rid of the bugs we would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r506994256-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506994256</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>red roof in</t>
+  </si>
+  <si>
+    <t>had a very good day in reed roof and I like my sevice  thanks to Ashley she was so attnte to me and my family and I would like to recommend every one to visit reed roof in  yall going to like yall serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn Houston East, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>had a very good day in reed roof and I like my sevice  thanks to Ashley she was so attnte to me and my family and I would like to recommend every one to visit reed roof in  yall going to like yall serviceMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r479022334-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>11904353</t>
-  </si>
-  <si>
     <t>479022334</t>
   </si>
   <si>
@@ -222,12 +282,51 @@
     <t>Probably was a nice place before it filled with construction workers. Seriously run down, stained carpets, curtains falling off, holes in the bedding, and seriously funky odor in the room.  At least the bathroom and towels are clean. Pleasant lobby. And they do indeed allow pets.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Probably was a nice place before it filled with construction workers. Seriously run down, stained carpets, curtains falling off, holes in the bedding, and seriously funky odor in the room.  At least the bathroom and towels are clean. Pleasant lobby. And they do indeed allow pets.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r469696495-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469696495</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome! </t>
+  </si>
+  <si>
+    <t>I just wanted to clear up this reviews! I just left Redroof inn and I already miss it! I loved everything about my experience from friendly staff to the delightful and free breakfast! I had a really good time and next time I go to Houston I'm going to my Redroof Inn. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I just wanted to clear up this reviews! I just left Redroof inn and I already miss it! I loved everything about my experience from friendly staff to the delightful and free breakfast! I had a really good time and next time I go to Houston I'm going to my Redroof Inn. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r462592014-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462592014</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Rather sleep on a park bench then sleep their again</t>
+  </si>
+  <si>
+    <t>First room they gave me the ac didn't work so went down to lobby and they didn't have another key so I could change to a new room had to take all my stuff down to lobby then new room was half way in remodel so no tv no dresser holes in wall and partly painted so onto third room everything seemed good till I wanted to shower their was no cold water hooked to so boiling hot was only option plus every room had atleast one outlet without a face plate and no empty outletsMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>First room they gave me the ac didn't work so went down to lobby and they didn't have another key so I could change to a new room had to take all my stuff down to lobby then new room was half way in remodel so no tv no dresser holes in wall and partly painted so onto third room everything seemed good till I wanted to shower their was no cold water hooked to so boiling hot was only option plus every room had atleast one outlet without a face plate and no empty outletsMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d11904353-r461820521-Red_Roof_Inn_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -241,9 +340,6 @@
   </si>
   <si>
     <t>I am a member of the Red Roof Inn rewards program and frequently stay at their hotels. They are never particularly nice but this location has got to be the worst one I've ever stayed at. A majority of the exterior lighting is either missing or doesn't work, the blankets on my beds had burn holes in them, the closet door had a hole in it, there were plumbing leaks in the bathroom, and there was some kind of sewer line leak in the rear parking lot area where there is standing water that had an unpleasant odor.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2017</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
@@ -802,7 +898,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -812,10 +908,12 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>4</v>
@@ -870,17 +968,19 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
+      <c r="Q3" t="n">
         <v>5</v>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -889,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -911,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -920,43 +1020,47 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +1076,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -981,49 +1085,47 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1039,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1048,47 +1150,297 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5218</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
